--- a/files/crs_cutoff_dates.xlsx
+++ b/files/crs_cutoff_dates.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BFAB9F-5170-4B63-B31E-2CC9418C80D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>https://github.com/gandharvas/crs/blob/main/files/26_09_2022.xlsx?raw=true</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +345,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/crs_cutoff_dates.xlsx
+++ b/files/crs_cutoff_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BFAB9F-5170-4B63-B31E-2CC9418C80D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BBFAF1-1C14-4C3D-9FAC-B84B43F06CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="5472" windowWidth="21888" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,12 +349,12 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/files/crs_cutoff_dates.xlsx
+++ b/files/crs_cutoff_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BFAB9F-5170-4B63-B31E-2CC9418C80D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64A6FF4-5E3C-4F19-93F3-2A2B8D28AC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>https://github.com/gandharvas/crs/blob/main/files/26_09_2022.xlsx?raw=true</t>
   </si>
+  <si>
+    <t>https://github.com/gandharvas/crs/blob/main/files/10_10_2022.xlsx?raw=true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,14 +71,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -346,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -365,7 +379,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3058142A-4F41-4BD5-B7BF-6A777FF23799}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/crs_cutoff_dates.xlsx
+++ b/files/crs_cutoff_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64A6FF4-5E3C-4F19-93F3-2A2B8D28AC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44217A6A-85FF-4F45-B6BE-09054A824B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://github.com/gandharvas/crs/blob/main/files/26_09_2022.xlsx?raw=true</t>
   </si>
   <si>
     <t>https://github.com/gandharvas/crs/blob/main/files/10_10_2022.xlsx?raw=true</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
+  </si>
+  <si>
+    <t>https://github.com/gandharvas/crs/blob/main/files/24_10_2022.xlsx?raw=true</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,9 +393,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3058142A-4F41-4BD5-B7BF-6A777FF23799}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4C18F5A5-3F92-4D69-939A-272625F6F615}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/crs_cutoff_dates.xlsx
+++ b/files/crs_cutoff_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44217A6A-85FF-4F45-B6BE-09054A824B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E22CDB4-5441-427D-B9C1-C24FFB2F0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>https://github.com/gandharvas/crs/blob/main/files/10_10_2022.xlsx?raw=true</t>
   </si>
   <si>
-    <t>24/10/2022</t>
+    <t>https://github.com/gandharvas/crs/blob/main/files/24_10_2022.xlsx?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/gandharvas/crs/blob/main/files/24_10_2022.xlsx?raw=true</t>
+    <t>https://github.com/gandharvas/crs/blob/main/files/07_11_2022.xlsx?raw=true</t>
   </si>
 </sst>
 </file>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,10 +394,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -405,6 +413,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3058142A-4F41-4BD5-B7BF-6A777FF23799}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{4C18F5A5-3F92-4D69-939A-272625F6F615}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A4DF722D-2354-48B3-A6B5-3DE2F60ABD6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/crs_cutoff_dates.xlsx
+++ b/files/crs_cutoff_dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E22CDB4-5441-427D-B9C1-C24FFB2F0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B66F0F-C391-40E7-9746-C37A317E3186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>https://github.com/gandharvas/crs/blob/main/files/26_09_2022.xlsx?raw=true</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>https://github.com/gandharvas/crs/blob/main/files/07_11_2022.xlsx?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/gandharvas/crs/blob/main/files/22_11_2022.xlsx?raw=true</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -374,7 +377,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -407,6 +410,14 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -414,6 +425,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3058142A-4F41-4BD5-B7BF-6A777FF23799}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{4C18F5A5-3F92-4D69-939A-272625F6F615}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{A4DF722D-2354-48B3-A6B5-3DE2F60ABD6D}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{6B743ACA-AB08-4ED2-A9F9-2BD79EEE3F03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
